--- a/Hours_worked.xlsx
+++ b/Hours_worked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\CH_Research Dropbox\Assorted content\whales_own\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917A162F-B834-4907-95A4-F127CDDC61B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84521D2-9E7B-420D-9220-1ACFB3531AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="2292" windowWidth="30960" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M70"/>
+  <dimension ref="A2:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="J5" s="3">
         <f>SUM(B3:B167)</f>
-        <v>196.5</v>
+        <v>203.5</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="J6" s="5">
         <f>J5-M20</f>
-        <v>45.5</v>
+        <v>33.5</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -693,6 +693,9 @@
       <c r="L13" t="s">
         <v>26</v>
       </c>
+      <c r="M13">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -745,7 +748,7 @@
       </c>
       <c r="M20" s="7">
         <f xml:space="preserve"> SUM(M4:M19)</f>
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1130,6 +1133,22 @@
         <v>45866</v>
       </c>
       <c r="B70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>45872</v>
+      </c>
+      <c r="B72">
         <v>6</v>
       </c>
     </row>

--- a/Hours_worked.xlsx
+++ b/Hours_worked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\CH_Research Dropbox\Assorted content\whales_own\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84521D2-9E7B-420D-9220-1ACFB3531AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF47DE-F171-439E-8FEC-5CAF951A9AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2292" windowWidth="30960" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="J5" s="3">
         <f>SUM(B3:B167)</f>
-        <v>203.5</v>
+        <v>203</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="J6" s="5">
         <f>J5-M20</f>
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         <v>45872</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/Hours_worked.xlsx
+++ b/Hours_worked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\CH_Research Dropbox\Assorted content\whales_own\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF47DE-F171-439E-8FEC-5CAF951A9AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4E17BB-F0E1-4CFD-8FFA-460D7DC5D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M72"/>
+  <dimension ref="A2:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="J5" s="3">
         <f>SUM(B3:B167)</f>
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="J6" s="5">
         <f>J5-M20</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -1150,6 +1150,11 @@
       </c>
       <c r="B72">
         <v>5.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Hours_worked.xlsx
+++ b/Hours_worked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\CH_Research Dropbox\Assorted content\whales_own\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4E17BB-F0E1-4CFD-8FFA-460D7DC5D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317162D-3C3F-4E47-A340-D1178D99A528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24192" yWindow="1152" windowWidth="30960" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M73"/>
+  <dimension ref="A2:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="J5" s="3">
         <f>SUM(B3:B167)</f>
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="J6" s="5">
         <f>J5-M20</f>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -1153,8 +1153,19 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>45873</v>
+      </c>
       <c r="B73">
         <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Hours_worked.xlsx
+++ b/Hours_worked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\CH_Research Dropbox\Assorted content\whales_own\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317162D-3C3F-4E47-A340-D1178D99A528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644977BA-A1B5-44FD-B7F0-5DC4FBD99369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24192" yWindow="1152" windowWidth="30960" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="30960" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A2:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="J5" s="3">
         <f>SUM(B3:B167)</f>
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="J6" s="5">
         <f>J5-M20</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -1165,7 +1165,7 @@
         <v>45874</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Hours_worked.xlsx
+++ b/Hours_worked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\CH_Research Dropbox\Assorted content\whales_own\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644977BA-A1B5-44FD-B7F0-5DC4FBD99369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD33F720-46D3-407C-87F2-D3811F9E8E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="30960" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M74"/>
+  <dimension ref="A2:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="J5" s="3">
         <f>SUM(B3:B167)</f>
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="J6" s="5">
         <f>J5-M20</f>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -1166,6 +1166,14 @@
       </c>
       <c r="B74">
         <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Hours_worked.xlsx
+++ b/Hours_worked.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\CH_Research Dropbox\Assorted content\whales_own\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD33F720-46D3-407C-87F2-D3811F9E8E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E378D613-7486-459F-9F7E-F0BD63F868C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="30960" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t xml:space="preserve">Work on: </t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>aug 10- aug16</t>
+  </si>
+  <si>
+    <t>aug17-aug23</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
   <dimension ref="A2:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +581,7 @@
       </c>
       <c r="J5" s="3">
         <f>SUM(B3:B167)</f>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -602,7 +605,7 @@
       </c>
       <c r="J6" s="5">
         <f>J5-M20</f>
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -707,11 +710,20 @@
       <c r="L14" t="s">
         <v>27</v>
       </c>
+      <c r="M14">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45787</v>
       </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -748,7 +760,7 @@
       </c>
       <c r="M20" s="7">
         <f xml:space="preserve"> SUM(M4:M19)</f>
-        <v>170</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1173,7 +1185,7 @@
         <v>45875</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Hours_worked.xlsx
+++ b/Hours_worked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\CH_Research Dropbox\Assorted content\whales_own\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E378D613-7486-459F-9F7E-F0BD63F868C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B9E008-AED4-41D7-A37C-D403D88C0A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="30960" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6876" yWindow="3276" windowWidth="23400" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M75"/>
+  <dimension ref="A2:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="J5" s="3">
         <f>SUM(B3:B167)</f>
-        <v>224</v>
+        <v>225.5</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -605,7 +605,7 @@
       </c>
       <c r="J6" s="5">
         <f>J5-M20</f>
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -1186,6 +1186,47 @@
       </c>
       <c r="B75">
         <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>45892</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>45896</v>
       </c>
     </row>
   </sheetData>

--- a/Hours_worked.xlsx
+++ b/Hours_worked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\CH_Research Dropbox\Assorted content\whales_own\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B9E008-AED4-41D7-A37C-D403D88C0A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8B768C-CBF2-475C-AB8D-1DBC06A4F483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6876" yWindow="3276" windowWidth="23400" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <dimension ref="A2:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="J5" s="3">
         <f>SUM(B3:B167)</f>
-        <v>225.5</v>
+        <v>232</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -605,7 +605,7 @@
       </c>
       <c r="J6" s="5">
         <f>J5-M20</f>
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -1208,26 +1208,21 @@
       <c r="A78" s="1">
         <v>45892</v>
       </c>
+      <c r="B78">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>45893</v>
-      </c>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>45894</v>
-      </c>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>45895</v>
-      </c>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>45896</v>
-      </c>
+      <c r="A82" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
